--- a/TX BoQ v5-Internal.xlsx
+++ b/TX BoQ v5-Internal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnmeye\Documents\GitHub\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555612B-63EB-4C3A-95B6-3F6C0AAE7C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4F1EC1-9B8C-4455-89F1-A3D31C0BA9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="187">
   <si>
     <t>Y0</t>
   </si>
@@ -610,7 +610,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,14 +1049,17 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1070,17 +1073,14 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1571,14 +1571,14 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" customWidth="1"/>
     <col min="15" max="15" width="39.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>13733</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" t="s">
         <v>36</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -2596,14 +2596,14 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" customWidth="1"/>
     <col min="15" max="15" width="39.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>10891</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" t="s">
         <v>36</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -3569,12 +3569,12 @@
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="39" t="s">
         <v>48</v>
       </c>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="40" t="s">
         <v>49</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="41" t="s">
         <v>50</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>0.97802197802197799</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="42" t="s">
         <v>51</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="42" t="s">
         <v>52</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
         <v>57</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0.32142857142857145</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
         <v>59</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>3.663003663003663E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>4.304029304029304E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0.24358974358974358</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>3.663003663003663E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>9.1575091575091579E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>8.241758241758242E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>0.45421245421245421</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>7.5091575091575088E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -4504,33 +4504,33 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15.6" customHeight="1">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
+    <row r="4" spans="2:15" ht="15.75">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="16" t="s">
         <v>72</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="17" t="s">
         <v>83</v>
       </c>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="17" t="s">
         <v>85</v>
       </c>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="17" t="s">
         <v>85</v>
       </c>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="17" t="s">
         <v>85</v>
       </c>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="17" t="s">
         <v>85</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="28">
@@ -4882,26 +4882,26 @@
       </c>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="15.75">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+    </row>
+    <row r="12" spans="2:15" ht="15.75">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="16" t="s">
         <v>72</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="17" t="s">
         <v>83</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="17" t="s">
         <v>85</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="17" t="s">
         <v>85</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="17" t="s">
         <v>85</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>49.241169544740977</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14">
       <c r="B17" s="17" t="s">
         <v>85</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>23.324764521193092</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14">
       <c r="D18" s="28">
         <f>SUM(D13:D17)</f>
         <v>59.957470010905126</v>
@@ -5242,24 +5242,24 @@
         <v>72.565934065934073</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="63" t="s">
+    <row r="19" spans="2:14">
+      <c r="D19" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+    </row>
+    <row r="20" spans="2:14" ht="15.75">
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="16" t="s">
         <v>72</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14">
       <c r="B21" s="17" t="s">
         <v>83</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14">
       <c r="B22" s="17" t="s">
         <v>85</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14">
       <c r="B23" s="17" t="s">
         <v>85</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14">
       <c r="B24" s="17" t="s">
         <v>85</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>278.68406593406593</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14">
       <c r="B25" s="17" t="s">
         <v>85</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>132.00824175824175</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14">
       <c r="D26" s="28">
         <f>SUM(D21:D25)</f>
         <v>364.13195201744821</v>
@@ -5600,24 +5600,24 @@
         <v>410.69230769230768</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="63" t="s">
+    <row r="27" spans="2:14" ht="14.45" customHeight="1">
+      <c r="D27" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75">
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="16" t="s">
         <v>72</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14">
       <c r="B29" s="17" t="s">
         <v>83</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14">
       <c r="B30" s="17" t="s">
         <v>85</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14">
       <c r="B31" s="17" t="s">
         <v>85</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14">
       <c r="B32" s="17" t="s">
         <v>85</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>22.001373626373628</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14">
       <c r="B33" s="17" t="s">
         <v>85</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>10.421703296703297</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14">
       <c r="D34" s="28">
         <f>SUM(D29:D33)</f>
         <v>27.785169029443836</v>
@@ -5958,24 +5958,24 @@
         <v>32.423076923076927</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="63" t="s">
+    <row r="35" spans="2:14" ht="14.45" customHeight="1">
+      <c r="D35" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75">
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="16" t="s">
         <v>72</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14">
       <c r="B37" s="17" t="s">
         <v>83</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14">
       <c r="B38" s="17" t="s">
         <v>85</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14">
       <c r="B39" s="17" t="s">
         <v>85</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14">
       <c r="B40" s="17" t="s">
         <v>85</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>4.1907378335949765</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14">
       <c r="B41" s="17" t="s">
         <v>85</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>1.9850863422291996</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14">
       <c r="D42" s="28">
         <f>SUM(D37:D41)</f>
         <v>43.871319520174481</v>
@@ -6316,24 +6316,24 @@
         <v>6.1758241758241761</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D43" s="63" t="s">
+    <row r="43" spans="2:14">
+      <c r="D43" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-    </row>
-    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+    </row>
+    <row r="44" spans="2:14" ht="15.75">
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="16" t="s">
         <v>72</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14">
       <c r="B45" s="17" t="s">
         <v>83</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14">
       <c r="B46" s="17" t="s">
         <v>85</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14">
       <c r="B47" s="17" t="s">
         <v>85</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14">
       <c r="B48" s="17" t="s">
         <v>85</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>10.476844583987441</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14">
       <c r="B49" s="17" t="s">
         <v>85</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>4.9627158555729984</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14">
       <c r="D50" s="28">
         <f>SUM(D45:D49)</f>
         <v>14.623773173391495</v>
@@ -6674,24 +6674,24 @@
         <v>15.43956043956044</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D51" s="63" t="s">
+    <row r="51" spans="2:14">
+      <c r="D51" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-    </row>
-    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+    </row>
+    <row r="52" spans="2:14" ht="15.75">
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="16" t="s">
         <v>72</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14">
       <c r="B53" s="17" t="s">
         <v>83</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14">
       <c r="B54" s="17" t="s">
         <v>85</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14">
       <c r="B55" s="17" t="s">
         <v>85</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14">
       <c r="B56" s="17" t="s">
         <v>85</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>9.4291601255886981</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14">
       <c r="B57" s="17" t="s">
         <v>85</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>4.4664442700156997</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14">
       <c r="D58" s="28">
         <f>SUM(D53:D57)</f>
         <v>32.172300981461291</v>
@@ -7032,24 +7032,24 @@
         <v>13.895604395604398</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D59" s="63" t="s">
+    <row r="59" spans="2:14">
+      <c r="D59" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-    </row>
-    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75">
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="16" t="s">
         <v>72</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14">
       <c r="B61" s="17" t="s">
         <v>83</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14">
       <c r="B62" s="17" t="s">
         <v>85</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14">
       <c r="B63" s="17" t="s">
         <v>85</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14">
       <c r="B64" s="17" t="s">
         <v>85</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>519.65149136577713</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14">
       <c r="B65" s="17" t="s">
         <v>85</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>246.15070643642073</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14">
       <c r="D66" s="28">
         <f>SUM(D61:D65)</f>
         <v>231.0556161395856</v>
@@ -7390,24 +7390,24 @@
         <v>765.80219780219784</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="63" t="s">
+    <row r="67" spans="2:14">
+      <c r="D67" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-    </row>
-    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="61"/>
-      <c r="C68" s="62"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+    </row>
+    <row r="68" spans="2:14" ht="15.75">
+      <c r="B68" s="62"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="16" t="s">
         <v>72</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14">
       <c r="B69" s="17" t="s">
         <v>83</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14">
       <c r="B70" s="17" t="s">
         <v>85</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14">
       <c r="B71" s="17" t="s">
         <v>85</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14">
       <c r="B72" s="17" t="s">
         <v>85</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>85.910125588697014</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14">
       <c r="B73" s="17" t="s">
         <v>85</v>
       </c>
@@ -7702,24 +7702,24 @@
         <v>40.694270015698592</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="63" t="s">
+    <row r="75" spans="2:14">
+      <c r="D75" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
-    </row>
-    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="61"/>
-      <c r="C76" s="62"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="65"/>
+      <c r="N75" s="65"/>
+    </row>
+    <row r="76" spans="2:14" ht="15.75">
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="16" t="s">
         <v>72</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14">
       <c r="B77" s="17" t="s">
         <v>83</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14">
       <c r="B78" s="17" t="s">
         <v>85</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14">
       <c r="B79" s="17" t="s">
         <v>85</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14">
       <c r="B80" s="17" t="s">
         <v>85</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>108.9591836734694</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14">
       <c r="B81" s="17" t="s">
         <v>85</v>
       </c>
@@ -8014,24 +8014,24 @@
         <v>51.612244897959179</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="63" t="s">
+    <row r="83" spans="2:14">
+      <c r="D83" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="64"/>
-    </row>
-    <row r="84" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="61"/>
-      <c r="C84" s="62"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="65"/>
+      <c r="N83" s="65"/>
+    </row>
+    <row r="84" spans="2:14" ht="15.75">
+      <c r="B84" s="62"/>
+      <c r="C84" s="63"/>
       <c r="D84" s="16" t="s">
         <v>72</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14">
       <c r="B85" s="17" t="s">
         <v>83</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14">
       <c r="B86" s="17" t="s">
         <v>85</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14">
       <c r="B87" s="17" t="s">
         <v>85</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14">
       <c r="B88" s="17" t="s">
         <v>85</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>51.336538461538467</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14">
       <c r="B89" s="17" t="s">
         <v>85</v>
       </c>
@@ -8326,24 +8326,24 @@
         <v>24.317307692307693</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D91" s="63" t="s">
+    <row r="91" spans="2:14">
+      <c r="D91" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="M91" s="64"/>
-      <c r="N91" s="64"/>
-    </row>
-    <row r="92" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="61"/>
-      <c r="C92" s="62"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
+      <c r="L91" s="65"/>
+      <c r="M91" s="65"/>
+      <c r="N91" s="65"/>
+    </row>
+    <row r="92" spans="2:14" ht="15.75">
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="16" t="s">
         <v>72</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14">
       <c r="B93" s="17" t="s">
         <v>83</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14">
       <c r="B94" s="17" t="s">
         <v>85</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14">
       <c r="B95" s="17" t="s">
         <v>85</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14">
       <c r="B96" s="17" t="s">
         <v>85</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>1144.0714285714289</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14">
       <c r="B97" s="17" t="s">
         <v>85</v>
       </c>
@@ -8640,13 +8640,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D75:N75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D83:N83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D91:N91"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="D27:N27"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D67:N67"/>
@@ -8659,11 +8657,13 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D59:N59"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="D11:N11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D19:N19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D75:N75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D83:N83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D91:N91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8677,11 +8677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E399C830-DD96-4A5E-B3BC-68E8ADB24F95}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C56"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -8691,7 +8691,7 @@
     <col min="13" max="14" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="26" t="s">
         <v>94</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="17" t="s">
         <v>83</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="17" t="s">
         <v>85</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="17" t="s">
         <v>85</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="17" t="s">
         <v>83</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="17" t="s">
         <v>85</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="17" t="s">
         <v>85</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="17" t="s">
         <v>85</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="25" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>85</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="25" customFormat="1">
       <c r="A12" s="17" t="s">
         <v>83</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="25" customFormat="1">
       <c r="A13" s="17" t="s">
         <v>85</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="25" customFormat="1">
       <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="25" customFormat="1">
       <c r="A15" s="17" t="s">
         <v>85</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="25" customFormat="1">
       <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="25" customFormat="1">
       <c r="A17" s="17" t="s">
         <v>83</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="25" customFormat="1">
       <c r="A18" s="17" t="s">
         <v>85</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="25" customFormat="1">
       <c r="A19" s="17" t="s">
         <v>85</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="25" customFormat="1">
       <c r="A20" s="17" t="s">
         <v>85</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="25" customFormat="1">
       <c r="A21" s="17" t="s">
         <v>85</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="25" customFormat="1">
       <c r="A22" s="17" t="s">
         <v>83</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="25" customFormat="1">
       <c r="A23" s="17" t="s">
         <v>85</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="25" customFormat="1">
       <c r="A24" s="17" t="s">
         <v>85</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="25" customFormat="1">
       <c r="A25" s="17" t="s">
         <v>85</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="25" customFormat="1">
       <c r="A26" s="17" t="s">
         <v>85</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="25" customFormat="1">
       <c r="A27" s="17" t="s">
         <v>83</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="25" customFormat="1">
       <c r="A28" s="17" t="s">
         <v>85</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="25" customFormat="1">
       <c r="A29" s="17" t="s">
         <v>85</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="25" customFormat="1">
       <c r="A30" s="17" t="s">
         <v>85</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="25" customFormat="1">
       <c r="A31" s="17" t="s">
         <v>85</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="25" customFormat="1">
       <c r="A32" s="17" t="s">
         <v>83</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="25" customFormat="1">
       <c r="A33" s="17" t="s">
         <v>85</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="25" customFormat="1">
       <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="25" customFormat="1">
       <c r="A35" s="17" t="s">
         <v>85</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="25" customFormat="1">
       <c r="A36" s="17" t="s">
         <v>85</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="25" customFormat="1">
       <c r="A37" s="17" t="s">
         <v>83</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="25" customFormat="1">
       <c r="A38" s="17" t="s">
         <v>85</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="25" customFormat="1">
       <c r="A39" s="17" t="s">
         <v>85</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="25" customFormat="1">
       <c r="A40" s="17" t="s">
         <v>85</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="25" customFormat="1">
       <c r="A41" s="17" t="s">
         <v>85</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="25" customFormat="1">
       <c r="A42" s="17" t="s">
         <v>83</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="25" customFormat="1">
       <c r="A43" s="17" t="s">
         <v>85</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="25" customFormat="1">
       <c r="A44" s="17" t="s">
         <v>85</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="25" customFormat="1">
       <c r="A45" s="17" t="s">
         <v>85</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="25" customFormat="1">
       <c r="A46" s="17" t="s">
         <v>85</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="25" customFormat="1">
       <c r="A47" s="17" t="s">
         <v>83</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="25" customFormat="1">
       <c r="A48" s="17" t="s">
         <v>85</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="25" customFormat="1">
       <c r="A49" s="17" t="s">
         <v>85</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="25" customFormat="1">
       <c r="A50" s="17" t="s">
         <v>85</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="25" customFormat="1">
       <c r="A51" s="17" t="s">
         <v>85</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="25" customFormat="1">
       <c r="A52" s="17" t="s">
         <v>83</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="25" customFormat="1">
       <c r="A53" s="17" t="s">
         <v>85</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="25" customFormat="1">
       <c r="A54" s="17" t="s">
         <v>85</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="25" customFormat="1">
       <c r="A55" s="17" t="s">
         <v>85</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="25" customFormat="1">
       <c r="A56" s="17" t="s">
         <v>85</v>
       </c>
@@ -11390,25 +11390,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AA4FC3-8840-458D-BC34-9FECFD3A47AB}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I2" sqref="A1:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="56" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>92</v>
       </c>
       <c r="D1" s="29" t="s">
@@ -11426,1239 +11426,1462 @@
       <c r="H1" s="29" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="I1" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="60">
         <v>76</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="I2" s="1">
+        <f>SUM(D2:H2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="60">
         <v>250</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="60">
         <v>5</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I56" si="0">SUM(D3:H3)</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60">
         <v>24</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60">
         <v>1</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="60">
         <v>90.180997729783599</v>
       </c>
-      <c r="E6" s="67">
-        <v>0</v>
-      </c>
-      <c r="F6" s="67">
-        <v>0</v>
-      </c>
-      <c r="G6" s="67">
-        <v>0</v>
-      </c>
-      <c r="H6" s="67">
+      <c r="E6" s="60">
+        <v>0</v>
+      </c>
+      <c r="F6" s="60">
+        <v>0</v>
+      </c>
+      <c r="G6" s="60">
+        <v>0</v>
+      </c>
+      <c r="H6" s="60">
         <v>0.48059601461648793</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>90.661593744400093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="60">
         <v>1</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60">
         <v>1</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="60">
         <v>5</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67">
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="60">
         <v>3</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60">
         <v>5</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="60">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A11" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="60">
         <v>41</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="60">
         <v>3</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="60">
         <v>4</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="60">
         <v>31</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="60">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="60">
         <v>5</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="60">
         <v>2</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67">
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="60">
         <v>42</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="60">
         <v>63</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="60">
         <v>28</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="60">
         <v>10</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="60">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="60">
         <v>23</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="60">
         <v>43</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="60">
         <v>32</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="60">
         <v>12</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="60">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="60">
         <v>115</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="60">
         <v>177</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="60">
         <v>130</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="60">
         <v>37</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="60">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="60">
         <v>153</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="60">
         <v>277</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="60">
         <v>240</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="60">
         <v>82</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="60">
         <v>3</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67">
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="60">
         <v>2</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67">
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60">
         <v>3</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="60">
         <v>2</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67">
+      <c r="E20" s="60"/>
+      <c r="F20" s="60">
         <v>1</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="60">
         <v>1</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="60">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="60">
         <v>12</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="60">
         <v>1</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="60">
         <v>1</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="60">
         <v>15</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="60">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="60">
         <v>13</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67">
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="60">
         <v>33</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67">
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67">
+      <c r="D24" s="60"/>
+      <c r="E24" s="60">
         <v>11</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67">
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67">
+      <c r="D25" s="60"/>
+      <c r="E25" s="60">
         <v>7</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67">
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60">
         <v>11</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67">
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="60">
         <v>6</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67">
+      <c r="E28" s="60"/>
+      <c r="F28" s="60">
         <v>2</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67">
+      <c r="G28" s="60"/>
+      <c r="H28" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60">
         <v>3</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67">
+      <c r="F29" s="60"/>
+      <c r="G29" s="60">
         <v>2</v>
       </c>
-      <c r="H29" s="67"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="H29" s="60"/>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67">
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60">
         <v>1</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="60">
         <v>1</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="60">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="60">
         <v>5</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67">
+      <c r="E31" s="60"/>
+      <c r="F31" s="60">
         <v>1</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="60">
         <v>5</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="60">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="60">
         <v>3</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="60">
         <v>17</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67">
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="60">
         <v>3</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67">
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67">
+      <c r="D35" s="60"/>
+      <c r="E35" s="60">
         <v>22</v>
       </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67">
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+      <c r="I35" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67">
+      <c r="D36" s="60"/>
+      <c r="E36" s="60">
         <v>5</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67">
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="65" t="s">
+      <c r="I36" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67">
+      <c r="D37" s="60"/>
+      <c r="E37" s="60">
         <v>4</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="60">
         <v>1</v>
       </c>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="60">
         <v>29</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="60">
         <v>37</v>
       </c>
-      <c r="F38" s="67">
+      <c r="F38" s="60">
         <v>31</v>
       </c>
-      <c r="G38" s="67">
+      <c r="G38" s="60">
         <v>43</v>
       </c>
-      <c r="H38" s="67">
+      <c r="H38" s="60">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
+      <c r="I38" s="1">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="67">
+      <c r="D39" s="60">
         <v>79</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="60">
         <v>82</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="60">
         <v>66</v>
       </c>
-      <c r="G39" s="67">
+      <c r="G39" s="60">
         <v>59</v>
       </c>
-      <c r="H39" s="67">
+      <c r="H39" s="60">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
+      <c r="I39" s="1">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="67">
+      <c r="D40" s="60">
         <v>79</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="60">
         <v>216</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="60">
         <v>233</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="60">
         <v>201</v>
       </c>
-      <c r="H40" s="67">
+      <c r="H40" s="60">
         <v>184</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
+      <c r="I40" s="1">
+        <f t="shared" si="0"/>
+        <v>913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="67">
+      <c r="D41" s="60">
         <v>71</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="60">
         <v>193</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="60">
         <v>263</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="60">
         <v>239</v>
       </c>
-      <c r="H41" s="67">
+      <c r="H41" s="60">
         <v>308</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
+      <c r="I41" s="1">
+        <f t="shared" si="0"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="65" t="s">
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="67">
+      <c r="D43" s="60">
         <v>24</v>
       </c>
-      <c r="E43" s="67">
+      <c r="E43" s="60">
         <v>2</v>
       </c>
-      <c r="F43" s="67">
+      <c r="F43" s="60">
         <v>9</v>
       </c>
-      <c r="G43" s="67">
+      <c r="G43" s="60">
         <v>4</v>
       </c>
-      <c r="H43" s="67">
+      <c r="H43" s="60">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="65" t="s">
+      <c r="I43" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="67">
+      <c r="D44" s="60">
         <v>16</v>
       </c>
-      <c r="E44" s="67">
+      <c r="E44" s="60">
         <v>22</v>
       </c>
-      <c r="F44" s="67">
+      <c r="F44" s="60">
         <v>25</v>
       </c>
-      <c r="G44" s="67">
+      <c r="G44" s="60">
         <v>29</v>
       </c>
-      <c r="H44" s="67">
+      <c r="H44" s="60">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
+      <c r="I44" s="1">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="67">
+      <c r="D45" s="60">
         <v>49</v>
       </c>
-      <c r="E45" s="67">
+      <c r="E45" s="60">
         <v>59</v>
       </c>
-      <c r="F45" s="67">
+      <c r="F45" s="60">
         <v>114</v>
       </c>
-      <c r="G45" s="67">
+      <c r="G45" s="60">
         <v>108</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="60">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
+      <c r="I45" s="1">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="67">
+      <c r="D46" s="60">
         <v>29</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="60">
         <v>33</v>
       </c>
-      <c r="F46" s="67">
+      <c r="F46" s="60">
         <v>70</v>
       </c>
-      <c r="G46" s="67">
+      <c r="G46" s="60">
         <v>93</v>
       </c>
-      <c r="H46" s="67">
+      <c r="H46" s="60">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
+      <c r="I46" s="1">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="67">
+      <c r="D48" s="60">
         <v>24</v>
       </c>
-      <c r="E48" s="67">
+      <c r="E48" s="60">
         <v>3</v>
       </c>
-      <c r="F48" s="67">
+      <c r="F48" s="60">
         <v>1</v>
       </c>
-      <c r="G48" s="67">
+      <c r="G48" s="60">
         <v>1</v>
       </c>
-      <c r="H48" s="67">
+      <c r="H48" s="60">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
+      <c r="I48" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="67">
+      <c r="D49" s="60">
         <v>19</v>
       </c>
-      <c r="E49" s="67">
+      <c r="E49" s="60">
         <v>6</v>
       </c>
-      <c r="F49" s="67">
+      <c r="F49" s="60">
         <v>1</v>
       </c>
-      <c r="G49" s="67">
+      <c r="G49" s="60">
         <v>7</v>
       </c>
-      <c r="H49" s="67">
+      <c r="H49" s="60">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
+      <c r="I49" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="67">
+      <c r="D50" s="60">
         <v>10</v>
       </c>
-      <c r="E50" s="67">
+      <c r="E50" s="60">
         <v>29</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="60">
         <v>10</v>
       </c>
-      <c r="G50" s="67">
+      <c r="G50" s="60">
         <v>12</v>
       </c>
-      <c r="H50" s="67">
+      <c r="H50" s="60">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="65" t="s">
+      <c r="I50" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="67">
+      <c r="D51" s="60">
         <v>45</v>
       </c>
-      <c r="E51" s="67">
+      <c r="E51" s="60">
         <v>53</v>
       </c>
-      <c r="F51" s="67">
+      <c r="F51" s="60">
         <v>23</v>
       </c>
-      <c r="G51" s="67">
+      <c r="G51" s="60">
         <v>45</v>
       </c>
-      <c r="H51" s="67">
+      <c r="H51" s="60">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
+      <c r="I51" s="1">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="67">
+      <c r="D52" s="60">
         <v>4</v>
       </c>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="67">
+      <c r="D53" s="60">
         <v>18</v>
       </c>
-      <c r="E53" s="67">
+      <c r="E53" s="60">
         <v>6</v>
       </c>
-      <c r="F53" s="67">
+      <c r="F53" s="60">
         <v>4</v>
       </c>
-      <c r="G53" s="67">
+      <c r="G53" s="60">
         <v>10</v>
       </c>
-      <c r="H53" s="67">
+      <c r="H53" s="60">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="65" t="s">
+      <c r="I53" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="67">
+      <c r="D54" s="60">
         <v>12</v>
       </c>
-      <c r="E54" s="67">
+      <c r="E54" s="60">
         <v>3</v>
       </c>
-      <c r="F54" s="67">
+      <c r="F54" s="60">
         <v>10</v>
       </c>
-      <c r="G54" s="67">
+      <c r="G54" s="60">
         <v>5</v>
       </c>
-      <c r="H54" s="67">
+      <c r="H54" s="60">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="65" t="s">
+      <c r="I54" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="67">
+      <c r="D55" s="60">
         <v>11</v>
       </c>
-      <c r="E55" s="67">
+      <c r="E55" s="60">
         <v>32</v>
       </c>
-      <c r="F55" s="67">
+      <c r="F55" s="60">
         <v>13</v>
       </c>
-      <c r="G55" s="67">
+      <c r="G55" s="60">
         <v>43</v>
       </c>
-      <c r="H55" s="67">
+      <c r="H55" s="60">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
+      <c r="I55" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="67">
+      <c r="D56" s="60">
         <v>24</v>
       </c>
-      <c r="E56" s="67">
+      <c r="E56" s="60">
         <v>75</v>
       </c>
-      <c r="F56" s="67">
+      <c r="F56" s="60">
         <v>47</v>
       </c>
-      <c r="G56" s="67">
+      <c r="G56" s="60">
         <v>113</v>
       </c>
-      <c r="H56" s="67">
+      <c r="H56" s="60">
         <v>35</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="0"/>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -12674,19 +12897,19 @@
       <selection activeCell="A45" sqref="A45:D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12697,7 +12920,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12708,12 +12931,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1">
       <c r="C4" s="32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="C5" s="33" t="s">
         <v>115</v>
       </c>
@@ -12727,7 +12950,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="26.25" thickBot="1">
       <c r="C6" s="36" t="s">
         <v>119</v>
       </c>
@@ -12741,7 +12964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="64.5" thickBot="1">
       <c r="C7" s="36" t="s">
         <v>119</v>
       </c>
@@ -12755,7 +12978,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="39" thickBot="1">
       <c r="C8" s="36" t="s">
         <v>119</v>
       </c>
@@ -12769,7 +12992,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="26.25" thickBot="1">
       <c r="C9" s="36" t="s">
         <v>119</v>
       </c>
@@ -12783,7 +13006,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="90" thickBot="1">
       <c r="C10" s="36" t="s">
         <v>119</v>
       </c>
@@ -12797,7 +13020,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="51.75" thickBot="1">
       <c r="C11" s="36" t="s">
         <v>119</v>
       </c>
@@ -12811,7 +13034,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="C12" s="36" t="s">
         <v>86</v>
       </c>
@@ -12823,7 +13046,7 @@
       </c>
       <c r="F12" s="38"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="C13" s="36" t="s">
         <v>120</v>
       </c>
@@ -12835,7 +13058,7 @@
       </c>
       <c r="F13" s="38"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="C14" s="36" t="s">
         <v>123</v>
       </c>
@@ -12847,7 +13070,7 @@
       </c>
       <c r="F14" s="38"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="C15" s="36" t="s">
         <v>91</v>
       </c>
@@ -12857,7 +13080,7 @@
       </c>
       <c r="F15" s="38"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12868,7 +13091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -12879,7 +13102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -12890,12 +13113,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="C43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="89.25">
       <c r="A45" s="43" t="s">
         <v>137</v>
       </c>
@@ -12906,7 +13129,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="76.5">
       <c r="A46" s="43" t="s">
         <v>137</v>
       </c>
@@ -12917,7 +13140,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="76.5">
       <c r="A47" s="43" t="s">
         <v>137</v>
       </c>
@@ -12928,7 +13151,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="51">
       <c r="A48" s="43" t="s">
         <v>137</v>
       </c>
@@ -12939,7 +13162,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="38.25">
       <c r="A49" s="43" t="s">
         <v>137</v>
       </c>
@@ -12950,7 +13173,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="25.5">
       <c r="A50" s="43" t="s">
         <v>137</v>
       </c>
@@ -12961,7 +13184,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="63.75">
       <c r="A51" s="43" t="s">
         <v>137</v>
       </c>
@@ -12972,7 +13195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="38.25">
       <c r="A52" s="43" t="s">
         <v>137</v>
       </c>
@@ -12983,7 +13206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="76.5">
       <c r="A53" s="43" t="s">
         <v>137</v>
       </c>
@@ -12994,7 +13217,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="76.5">
       <c r="A54" s="43" t="s">
         <v>137</v>
       </c>
@@ -13005,7 +13228,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="63.75">
       <c r="A55" s="43" t="s">
         <v>137</v>
       </c>
@@ -13016,7 +13239,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="153" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="153">
       <c r="A56" s="43" t="s">
         <v>137</v>
       </c>
@@ -13027,7 +13250,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="242.25">
       <c r="A57" s="43" t="s">
         <v>137</v>
       </c>
@@ -13038,7 +13261,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="38.25">
       <c r="A58" s="43" t="s">
         <v>137</v>
       </c>
@@ -13049,7 +13272,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="76.5">
       <c r="A59" s="43" t="s">
         <v>137</v>
       </c>
@@ -13060,7 +13283,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="25.5">
       <c r="A60" s="43" t="s">
         <v>137</v>
       </c>
@@ -13071,7 +13294,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="38.25">
       <c r="A61" s="43" t="s">
         <v>137</v>
       </c>
@@ -13082,7 +13305,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="25.5">
       <c r="A62" s="43" t="s">
         <v>137</v>
       </c>
@@ -13093,7 +13316,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="51">
       <c r="A63" s="43" t="s">
         <v>137</v>
       </c>
@@ -13104,7 +13327,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="63.75">
       <c r="A64" s="43" t="s">
         <v>137</v>
       </c>
@@ -13115,7 +13338,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="76.5">
       <c r="A65" s="43" t="s">
         <v>137</v>
       </c>
@@ -13126,7 +13349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="76.5">
       <c r="A66" s="43" t="s">
         <v>137</v>
       </c>
@@ -13137,7 +13360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="89.25">
       <c r="A67" s="43" t="s">
         <v>137</v>
       </c>
@@ -13148,7 +13371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="63.75">
       <c r="A68" s="43" t="s">
         <v>137</v>
       </c>
@@ -13159,7 +13382,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="38.25">
       <c r="A69" s="43" t="s">
         <v>137</v>
       </c>
@@ -13170,7 +13393,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="38.25">
       <c r="A70" s="43" t="s">
         <v>137</v>
       </c>
@@ -13181,7 +13404,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="51">
       <c r="A71" s="43" t="s">
         <v>137</v>
       </c>
@@ -13192,7 +13415,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="76.5">
       <c r="A72" s="43" t="s">
         <v>137</v>
       </c>
@@ -13203,7 +13426,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="63.75">
       <c r="A73" s="43" t="s">
         <v>137</v>
       </c>
@@ -13214,7 +13437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="89.25">
       <c r="A74" s="43" t="s">
         <v>137</v>
       </c>
@@ -13225,7 +13448,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="25.5">
       <c r="A75" s="43" t="s">
         <v>137</v>
       </c>
@@ -13236,7 +13459,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="38.25">
       <c r="A76" s="43" t="s">
         <v>137</v>
       </c>
@@ -13247,7 +13470,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="89.25">
       <c r="A77" s="43" t="s">
         <v>137</v>
       </c>
@@ -13258,7 +13481,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="89.25">
       <c r="A78" s="43" t="s">
         <v>137</v>
       </c>
@@ -13269,7 +13492,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="127.5">
       <c r="A79" s="43" t="s">
         <v>137</v>
       </c>
@@ -13280,7 +13503,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="140.25">
       <c r="A80" s="43" t="s">
         <v>137</v>
       </c>
@@ -13291,7 +13514,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="38.25">
       <c r="A81" s="43" t="s">
         <v>137</v>
       </c>
@@ -13310,6 +13533,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A61425803168A04CA98969079F39FB6B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab7612d7a05b821f695a88399bb7e670">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164be6af-a911-447f-bb45-6500f461f285" xmlns:ns3="bd6af0d1-77c9-4e81-bd7e-f1212379fdff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1c939da4508d3c26ec6778bb6808a34" ns2:_="" ns3:_="">
     <xsd:import namespace="164be6af-a911-447f-bb45-6500f461f285"/>
@@ -13506,12 +13735,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13522,6 +13745,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C43390DA-3C30-4161-A78C-9AE8479917E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714B8D9C-00D2-4954-9F3C-71B8D37066F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13540,15 +13772,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C43390DA-3C30-4161-A78C-9AE8479917E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD87A254-ACCF-493F-BCCF-D0A2D45AFC08}">
   <ds:schemaRefs>

--- a/TX BoQ v5-Internal.xlsx
+++ b/TX BoQ v5-Internal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnmeye\Documents\GitHub\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4F1EC1-9B8C-4455-89F1-A3D31C0BA9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E0668-49FD-42DD-9492-AE5E4FE39679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="187">
   <si>
     <t>Y0</t>
   </si>
@@ -1061,6 +1061,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1071,15 +1080,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4513,24 +4513,24 @@
     <row r="3" spans="2:15" ht="15.6" customHeight="1">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="16" t="s">
         <v>72</v>
       </c>
@@ -4885,23 +4885,23 @@
     <row r="11" spans="2:15" ht="15.75">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="68"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="64"/>
     </row>
     <row r="12" spans="2:15" ht="15.75">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="16" t="s">
         <v>72</v>
       </c>
@@ -5243,23 +5243,23 @@
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
     </row>
     <row r="20" spans="2:14" ht="15.75">
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="16" t="s">
         <v>72</v>
       </c>
@@ -5601,23 +5601,23 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="14.45" customHeight="1">
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
     </row>
     <row r="28" spans="2:14" ht="15.75">
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="16" t="s">
         <v>72</v>
       </c>
@@ -5959,23 +5959,23 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="14.45" customHeight="1">
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
     </row>
     <row r="36" spans="2:14" ht="15.75">
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="16" t="s">
         <v>72</v>
       </c>
@@ -6317,23 +6317,23 @@
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
     </row>
     <row r="44" spans="2:14" ht="15.75">
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="16" t="s">
         <v>72</v>
       </c>
@@ -6675,23 +6675,23 @@
       </c>
     </row>
     <row r="51" spans="2:14">
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
     </row>
     <row r="52" spans="2:14" ht="15.75">
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="16" t="s">
         <v>72</v>
       </c>
@@ -7033,23 +7033,23 @@
       </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="D59" s="64" t="s">
+      <c r="D59" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
     </row>
     <row r="60" spans="2:14" ht="15.75">
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="16" t="s">
         <v>72</v>
       </c>
@@ -7391,23 +7391,23 @@
       </c>
     </row>
     <row r="67" spans="2:14">
-      <c r="D67" s="64" t="s">
+      <c r="D67" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="68"/>
     </row>
     <row r="68" spans="2:14" ht="15.75">
-      <c r="B68" s="62"/>
-      <c r="C68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="16" t="s">
         <v>72</v>
       </c>
@@ -7703,23 +7703,23 @@
       </c>
     </row>
     <row r="75" spans="2:14">
-      <c r="D75" s="64" t="s">
+      <c r="D75" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="68"/>
+      <c r="M75" s="68"/>
+      <c r="N75" s="68"/>
     </row>
     <row r="76" spans="2:14" ht="15.75">
-      <c r="B76" s="62"/>
-      <c r="C76" s="63"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="16" t="s">
         <v>72</v>
       </c>
@@ -8015,23 +8015,23 @@
       </c>
     </row>
     <row r="83" spans="2:14">
-      <c r="D83" s="64" t="s">
+      <c r="D83" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="65"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="68"/>
+      <c r="N83" s="68"/>
     </row>
     <row r="84" spans="2:14" ht="15.75">
-      <c r="B84" s="62"/>
-      <c r="C84" s="63"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="16" t="s">
         <v>72</v>
       </c>
@@ -8327,23 +8327,23 @@
       </c>
     </row>
     <row r="91" spans="2:14">
-      <c r="D91" s="64" t="s">
+      <c r="D91" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
-      <c r="L91" s="65"/>
-      <c r="M91" s="65"/>
-      <c r="N91" s="65"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="68"/>
+      <c r="M91" s="68"/>
+      <c r="N91" s="68"/>
     </row>
     <row r="92" spans="2:14" ht="15.75">
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="66"/>
       <c r="D92" s="16" t="s">
         <v>72</v>
       </c>
@@ -8640,11 +8640,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="D11:N11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D19:N19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D75:N75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D83:N83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D91:N91"/>
     <mergeCell ref="D27:N27"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D67:N67"/>
@@ -8657,13 +8659,11 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D59:N59"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D75:N75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D83:N83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D91:N91"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11390,10 +11390,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AA4FC3-8840-458D-BC34-9FECFD3A47AB}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:I56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H56" sqref="D2:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11401,7 +11401,7 @@
     <col min="3" max="3" width="12" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="56" t="s">
         <v>94</v>
       </c>
@@ -11426,11 +11426,8 @@
       <c r="H1" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="58" t="s">
         <v>83</v>
       </c>
@@ -11449,12 +11446,8 @@
       <c r="H2" s="60">
         <v>24</v>
       </c>
-      <c r="I2" s="1">
-        <f>SUM(D2:H2)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="58" t="s">
         <v>85</v>
       </c>
@@ -11475,12 +11468,8 @@
       <c r="H3" s="60">
         <v>100</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I56" si="0">SUM(D3:H3)</f>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="58" t="s">
         <v>85</v>
       </c>
@@ -11499,12 +11488,8 @@
       <c r="H4" s="60">
         <v>18</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="58" t="s">
         <v>85</v>
       </c>
@@ -11521,12 +11506,8 @@
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="58" t="s">
         <v>85</v>
       </c>
@@ -11537,26 +11518,14 @@
         <v>71</v>
       </c>
       <c r="D6" s="60">
-        <v>90.180997729783599</v>
-      </c>
-      <c r="E6" s="60">
-        <v>0</v>
-      </c>
-      <c r="F6" s="60">
-        <v>0</v>
-      </c>
-      <c r="G6" s="60">
-        <v>0</v>
-      </c>
-      <c r="H6" s="60">
-        <v>0.48059601461648793</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>90.661593744400093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="58" t="s">
         <v>83</v>
       </c>
@@ -11571,12 +11540,8 @@
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="58" t="s">
         <v>85</v>
       </c>
@@ -11597,12 +11562,8 @@
       <c r="H8" s="60">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="58" t="s">
         <v>85</v>
       </c>
@@ -11621,12 +11582,8 @@
       <c r="H9" s="60">
         <v>3</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="58" t="s">
         <v>85</v>
       </c>
@@ -11647,12 +11604,8 @@
       <c r="H10" s="60">
         <v>6</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:8" ht="22.5" customHeight="1">
       <c r="A11" s="58" t="s">
         <v>85</v>
       </c>
@@ -11677,12 +11630,8 @@
       <c r="H11" s="60">
         <v>36</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="58" t="s">
         <v>83</v>
       </c>
@@ -11703,12 +11652,8 @@
       <c r="H12" s="60">
         <v>5</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="58" t="s">
         <v>85</v>
       </c>
@@ -11733,12 +11678,8 @@
       <c r="H13" s="60">
         <v>46</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="58" t="s">
         <v>85</v>
       </c>
@@ -11763,12 +11704,8 @@
       <c r="H14" s="60">
         <v>34</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="58" t="s">
         <v>85</v>
       </c>
@@ -11793,12 +11730,8 @@
       <c r="H15" s="60">
         <v>22</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="58" t="s">
         <v>85</v>
       </c>
@@ -11823,12 +11756,8 @@
       <c r="H16" s="60">
         <v>50</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="58" t="s">
         <v>83</v>
       </c>
@@ -11843,12 +11772,8 @@
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="58" t="s">
         <v>85</v>
       </c>
@@ -11867,12 +11792,8 @@
       <c r="H18" s="60">
         <v>1</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="58" t="s">
         <v>85</v>
       </c>
@@ -11893,12 +11814,8 @@
       <c r="H19" s="60">
         <v>1</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="58" t="s">
         <v>85</v>
       </c>
@@ -11921,12 +11838,8 @@
       <c r="H20" s="60">
         <v>6</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="58" t="s">
         <v>85</v>
       </c>
@@ -11951,12 +11864,8 @@
       <c r="H21" s="60">
         <v>24</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="58" t="s">
         <v>83</v>
       </c>
@@ -11975,12 +11884,8 @@
       <c r="H22" s="60">
         <v>4</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="58" t="s">
         <v>85</v>
       </c>
@@ -11999,12 +11904,8 @@
       <c r="H23" s="60">
         <v>14</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="58" t="s">
         <v>85</v>
       </c>
@@ -12023,12 +11924,8 @@
       <c r="H24" s="60">
         <v>5</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="58" t="s">
         <v>85</v>
       </c>
@@ -12047,12 +11944,8 @@
       <c r="H25" s="60">
         <v>2</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="58" t="s">
         <v>85</v>
       </c>
@@ -12071,12 +11964,8 @@
       <c r="H26" s="60">
         <v>1</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="58" t="s">
         <v>83</v>
       </c>
@@ -12091,12 +11980,8 @@
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
-      <c r="I27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="58" t="s">
         <v>85</v>
       </c>
@@ -12117,12 +12002,8 @@
       <c r="H28" s="60">
         <v>1</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="58" t="s">
         <v>85</v>
       </c>
@@ -12141,12 +12022,8 @@
         <v>2</v>
       </c>
       <c r="H29" s="60"/>
-      <c r="I29" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="58" t="s">
         <v>85</v>
       </c>
@@ -12167,12 +12044,8 @@
       <c r="H30" s="60">
         <v>2</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="58" t="s">
         <v>85</v>
       </c>
@@ -12195,12 +12068,8 @@
       <c r="H31" s="60">
         <v>8</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="58" t="s">
         <v>83</v>
       </c>
@@ -12217,12 +12086,8 @@
       <c r="F32" s="60"/>
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
-      <c r="I32" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="58" t="s">
         <v>85</v>
       </c>
@@ -12241,12 +12106,8 @@
       <c r="H33" s="60">
         <v>6</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="58" t="s">
         <v>85</v>
       </c>
@@ -12265,12 +12126,8 @@
       <c r="H34" s="60">
         <v>2</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="58" t="s">
         <v>85</v>
       </c>
@@ -12289,12 +12146,8 @@
       <c r="H35" s="60">
         <v>6</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="58" t="s">
         <v>85</v>
       </c>
@@ -12313,12 +12166,8 @@
       <c r="H36" s="60">
         <v>1</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="58" t="s">
         <v>83</v>
       </c>
@@ -12337,12 +12186,8 @@
       </c>
       <c r="G37" s="60"/>
       <c r="H37" s="60"/>
-      <c r="I37" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="58" t="s">
         <v>85</v>
       </c>
@@ -12367,12 +12212,8 @@
       <c r="H38" s="60">
         <v>43</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="0"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="58" t="s">
         <v>85</v>
       </c>
@@ -12397,12 +12238,8 @@
       <c r="H39" s="60">
         <v>72</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="0"/>
-        <v>358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="58" t="s">
         <v>85</v>
       </c>
@@ -12427,12 +12264,8 @@
       <c r="H40" s="60">
         <v>184</v>
       </c>
-      <c r="I40" s="1">
-        <f t="shared" si="0"/>
-        <v>913</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="58" t="s">
         <v>85</v>
       </c>
@@ -12457,12 +12290,8 @@
       <c r="H41" s="60">
         <v>308</v>
       </c>
-      <c r="I41" s="1">
-        <f t="shared" si="0"/>
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="58" t="s">
         <v>83</v>
       </c>
@@ -12477,12 +12306,8 @@
       <c r="F42" s="60"/>
       <c r="G42" s="60"/>
       <c r="H42" s="60"/>
-      <c r="I42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="58" t="s">
         <v>85</v>
       </c>
@@ -12507,12 +12332,8 @@
       <c r="H43" s="60">
         <v>10</v>
       </c>
-      <c r="I43" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="58" t="s">
         <v>85</v>
       </c>
@@ -12537,12 +12358,8 @@
       <c r="H44" s="60">
         <v>46</v>
       </c>
-      <c r="I44" s="1">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="58" t="s">
         <v>85</v>
       </c>
@@ -12567,12 +12384,8 @@
       <c r="H45" s="60">
         <v>56</v>
       </c>
-      <c r="I45" s="1">
-        <f t="shared" si="0"/>
-        <v>386</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="58" t="s">
         <v>85</v>
       </c>
@@ -12597,12 +12410,8 @@
       <c r="H46" s="60">
         <v>83</v>
       </c>
-      <c r="I46" s="1">
-        <f t="shared" si="0"/>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="58" t="s">
         <v>83</v>
       </c>
@@ -12617,12 +12426,8 @@
       <c r="F47" s="60"/>
       <c r="G47" s="60"/>
       <c r="H47" s="60"/>
-      <c r="I47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="58" t="s">
         <v>85</v>
       </c>
@@ -12647,12 +12452,8 @@
       <c r="H48" s="60">
         <v>2</v>
       </c>
-      <c r="I48" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="58" t="s">
         <v>85</v>
       </c>
@@ -12677,12 +12478,8 @@
       <c r="H49" s="60">
         <v>4</v>
       </c>
-      <c r="I49" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="58" t="s">
         <v>85</v>
       </c>
@@ -12707,12 +12504,8 @@
       <c r="H50" s="60">
         <v>19</v>
       </c>
-      <c r="I50" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="58" t="s">
         <v>85</v>
       </c>
@@ -12737,12 +12530,8 @@
       <c r="H51" s="60">
         <v>64</v>
       </c>
-      <c r="I51" s="1">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="58" t="s">
         <v>83</v>
       </c>
@@ -12759,12 +12548,8 @@
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="58" t="s">
         <v>85</v>
       </c>
@@ -12789,12 +12574,8 @@
       <c r="H53" s="60">
         <v>4</v>
       </c>
-      <c r="I53" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="58" t="s">
         <v>85</v>
       </c>
@@ -12819,12 +12600,8 @@
       <c r="H54" s="60">
         <v>5</v>
       </c>
-      <c r="I54" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="58" t="s">
         <v>85</v>
       </c>
@@ -12849,12 +12626,8 @@
       <c r="H55" s="60">
         <v>11</v>
       </c>
-      <c r="I55" s="1">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="58" t="s">
         <v>85</v>
       </c>
@@ -12878,10 +12651,6 @@
       </c>
       <c r="H56" s="60">
         <v>35</v>
-      </c>
-      <c r="I56" s="1">
-        <f t="shared" si="0"/>
-        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -13533,12 +13302,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A61425803168A04CA98969079F39FB6B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab7612d7a05b821f695a88399bb7e670">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164be6af-a911-447f-bb45-6500f461f285" xmlns:ns3="bd6af0d1-77c9-4e81-bd7e-f1212379fdff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1c939da4508d3c26ec6778bb6808a34" ns2:_="" ns3:_="">
     <xsd:import namespace="164be6af-a911-447f-bb45-6500f461f285"/>
@@ -13735,6 +13498,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13745,15 +13514,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C43390DA-3C30-4161-A78C-9AE8479917E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714B8D9C-00D2-4954-9F3C-71B8D37066F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13772,6 +13532,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C43390DA-3C30-4161-A78C-9AE8479917E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD87A254-ACCF-493F-BCCF-D0A2D45AFC08}">
   <ds:schemaRefs>
